--- a/biology/Zoologie/Aquarium_de_Nouvelle-Angleterre/Aquarium_de_Nouvelle-Angleterre.xlsx
+++ b/biology/Zoologie/Aquarium_de_Nouvelle-Angleterre/Aquarium_de_Nouvelle-Angleterre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Aquarium de Nouvelle-Angleterre est un aquarium situé dans la ville de Boston dans le Massachusetts.
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La planification de l'aquarium a commencé en 1962, avec le concepteur principal : Peter Chermayeff de Cambridge Seven Associates. Le bâtiment a été ouvert au public en 1969. Le réservoir de l'océan géant, ouvert en 1970, était à l'époque le plus grand réservoir océan circulaire dans le monde.
 Un navire multi-étages, le MV Discovery, a été amarré à côté de l'Aquarium en 1974. Il a servi de pavillon mammifère flottant pour l'aquarium comblant ainsi l'espace limité pour l'expansion de celle-ci. Ce stade de 1000 sièges possédait une vue donnant sur une piscine de 116 000 gallons d'eau. Celle-ci a accueilli les dauphins, jusqu'au milieu des années 1990, et les lions de mer, jusqu'à la retraite du navire. Discovery a officiellement pris sa retraite durant les années 2000 en raison de son âge avancé et du coût élevé de son entretien.
@@ -554,7 +568,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans l'atrium central du bâtiment principal, la caractéristique majeure de l'Aquarium est le réservoir de l'océan géant, une réservoir cylindrique de 760 000 litres d'eau simulant un récif de corail des Caraïbes. Ce réservoir abrite des requins, des tortues de mer, des raies, des anguilles, des barracudas ainsi que plusieurs espèces de petits poissons vivants à proximité des récifs coralliens. Ouverte sur le haut, la cuve en béton est entouré par une passerelle qui longe ses parois jusqu'au bas, ce qui permet aux visiteurs d'accéder aux 52 fenêtres offrant une vue sur le récif sous tous ses angles et ses niveaux.
 Ce réservoir repose sur un espace, à la base carrée, d'un volume de 570 000 litres. Au sein de celui-ci sont présentés des manchots, tels le manchot du Cap, le gorfou de Moseley, le gorfou sauteur ou encore le petit manchot pygmée. Ces oiseaux peuvent être vus à partir de la passerelle en spirale autour du réservoir central ou d'aires d'observation élevés qui entourent complètement le périmètre. Ces animaux vivent sur plusieurs îles rocheuses artificielles dans le bassin.
@@ -595,7 +611,9 @@
           <t>Expositions spéciales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Penguin Power
 Ce thème d'exposition impliquait les manchots de l'aquarium. Celui-ci a permis aux visiteurs d'apprendre comment les manchots survivent dans la nature et comment les protéger.
